--- a/artfynd/A 38542-2025 artfynd.xlsx
+++ b/artfynd/A 38542-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY121"/>
+  <dimension ref="A1:AY123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13077,6 +13077,210 @@
       </c>
       <c r="AY121" t="inlineStr"/>
     </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>131126304</v>
+      </c>
+      <c r="B122" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>Lämkullen, Lämkullen, Ång</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>681563</v>
+      </c>
+      <c r="R122" t="n">
+        <v>7086772</v>
+      </c>
+      <c r="S122" t="n">
+        <v>10</v>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y122" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AA122" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC122" t="inlineStr">
+        <is>
+          <t>Flera färska ringhack</t>
+        </is>
+      </c>
+      <c r="AD122" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE122" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG122" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT122" t="inlineStr"/>
+      <c r="AW122" t="inlineStr">
+        <is>
+          <t>Herman Niva</t>
+        </is>
+      </c>
+      <c r="AX122" t="inlineStr">
+        <is>
+          <t>Herman Niva</t>
+        </is>
+      </c>
+      <c r="AY122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>131125897</v>
+      </c>
+      <c r="B123" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>Lämkullen, Lämkullen, Ång</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>681456</v>
+      </c>
+      <c r="R123" t="n">
+        <v>7086805</v>
+      </c>
+      <c r="S123" t="n">
+        <v>10</v>
+      </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W123" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y123" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AA123" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC123" t="inlineStr">
+        <is>
+          <t>Flera färska ringhack</t>
+        </is>
+      </c>
+      <c r="AD123" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE123" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG123" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT123" t="inlineStr"/>
+      <c r="AW123" t="inlineStr">
+        <is>
+          <t>Herman Niva</t>
+        </is>
+      </c>
+      <c r="AX123" t="inlineStr">
+        <is>
+          <t>Herman Niva</t>
+        </is>
+      </c>
+      <c r="AY123" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
